--- a/outputs/RALEIGH2.xlsx
+++ b/outputs/RALEIGH2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: Abi is motivated to accomplish tasks and will recognize that gathering more information is necessary for setting up the environment. Abi's comprehensive information processing style means they prefer to gather a lot of information before acting, which aligns with the subgoal of gathering more information on setting up the environment. The page contains relevant information about the project, including links to deployment processes and code styles, which Abi would likely view as necessary steps in understanding how to set up the environment.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains various pieces of information related to the project, including deployment processes and other relevant documentation. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider gathering more information on setting up the environment as a necessary step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with Abi's information processing style, which is comprehensive. Abi tends to gather as much information as possible before taking action. The page layout is clear, with distinct sections and headings that can guide Abi to the relevant information about setting up the environment. The presence of links like "Deployment process" suggests that further detailed information is available, which will encourage Abi to scroll and explore the content.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Scrolling to find information is a straightforward action that aligns with Abi's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easier for Abi to navigate and find the relevant information. This action does not require high technical skills, so Abi's lower computer self-efficacy should not be a barrier here.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy 2. Information Processing Style
-Why: While scrolling down will help Abi gather some information, the information on the page is not comprehensive or directly focused on setting up the environment. The page provides an overview and some links, but it may not give Abi the detailed, step-by-step guidance they need to feel confident they are making progress. Abi's low computer self-efficacy means they may doubt whether they are following the right steps without explicit instructions. Additionally, the comprehensive information processing style would require more detailed and structured guidance to ensure they have all the necessary information for setting up the environment.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling, Abi might find some relevant information, but the page contains a lot of different sections and links, which could be overwhelming. The information is not specifically organized in a way that clearly guides Abi on setting up the environment. Abi's comprehensive information processing style means she needs clear, step-by-step instructions, and her lower computer self-efficacy means she might struggle to piece together the necessary steps from the scattered information. Therefore, she might not feel confident that she has gathered all the information she needs or that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/RALEIGH2.xlsx
+++ b/outputs/RALEIGH2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The page provides various resources and documentation links (e.g., `README.md`, `contribute.md`, `Deploying.md`) that are relevant to setting up the environment. This aligns with ABI's motivation to complete the task and their information processing style of gathering detailed information.</t>
+Why: The page contains various resources and documentation links such as "Contribute.md" and "Deploying.md" that are relevant to setting up the environment. ABI, who prefers to gather comprehensive information before acting, would likely consider gathering more information from these resources as a necessary step toward achieving the overall use case. The presence of these links aligns with ABI's motivation to accomplish tasks and her information processing style of gathering detailed information.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is structured with various sections and links that are likely to contain relevant information about setting up the environment. ABI will be able to scroll through the page to gather the necessary details.</t>
+Why: The page contains a variety of information and links that are relevant to setting up the environment, such as "Contribute.md" and "Deploying.md." ABI, who prefers to gather comprehensive information before acting, would likely know to scroll down to find more detailed information. The layout of the page, with clearly labeled sections and links, supports ABI's information processing style of gathering detailed information comprehensively.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling, ABI might find some relevant links and information, but the page is quite dense with various files and sections. ABI might not be confident that they have found all the necessary information due to the overwhelming amount of content. The page does not clearly guide ABI to specific resources for setting up the environment, which could make ABI unsure if they have gathered all the required information. This could hinder ABI's comprehensive information processing style and affect their confidence in making progress toward their goal.</t>
+Why: While scrolling down the page, ABI will find some relevant links and information, such as "Contribute.md" and "Deploying.md." However, the page contains a lot of information, and it might be overwhelming for ABI to process all of it at once. Additionally, the page does not provide clear, step-by-step instructions or a direct indication that ABI is making progress toward setting up the environment. Given ABI's low computer self-efficacy, she might struggle to determine if she has gathered all the necessary information and whether she is on the right track. The lack of clear guidance and the overwhelming amount of information could hinder ABI's confidence in knowing she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/RALEIGH2.xlsx
+++ b/outputs/RALEIGH2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains various resources and documentation links such as "Contribute.md" and "Deploying.md" that are relevant to setting up the environment. ABI, who prefers to gather comprehensive information before acting, would likely consider gathering more information from these resources as a necessary step toward achieving the overall use case. The presence of these links aligns with ABI's motivation to accomplish tasks and her information processing style of gathering detailed information.</t>
+Why: The page contains a "README.md" file and a "How to use?" section, which are likely to provide information on setting up the environment. ABI, who prefers to gather comprehensive information before acting, would consider reading these sections as a step toward achieving the overall use case of setting up the environment. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -435,16 +435,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page contains a variety of information and links that are relevant to setting up the environment, such as "Contribute.md" and "Deploying.md." ABI, who prefers to gather comprehensive information before acting, would likely know to scroll down to find more detailed information. The layout of the page, with clearly labeled sections and links, supports ABI's information processing style of gathering detailed information comprehensively.</t>
+Why: The page contains a "README.md" file and a "How to use?" section, which are likely to provide information on setting up the environment. ABI, who prefers to gather comprehensive information before acting, would consider scrolling to find these sections as a logical step. The page layout is clear and not overwhelming, making it easy for ABI to identify where to find the necessary information. This aligns with ABI's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down the page, ABI will find some relevant links and information, such as "Contribute.md" and "Deploying.md." However, the page contains a lot of information, and it might be overwhelming for ABI to process all of it at once. Additionally, the page does not provide clear, step-by-step instructions or a direct indication that ABI is making progress toward setting up the environment. Given ABI's low computer self-efficacy, she might struggle to determine if she has gathered all the necessary information and whether she is on the right track. The lack of clear guidance and the overwhelming amount of information could hinder ABI's confidence in knowing she did the right thing and is making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After scrolling, ABI will find the "README.md" file and the "How to use?" section, which are likely to provide detailed information on setting up the environment. This aligns with ABI's comprehensive information processing style, as these sections are typically designed to offer step-by-step instructions and relevant details. Additionally, finding these sections will confirm to ABI that they are making progress toward their goal of gathering more information on setting up the environment, aligning with their motivation to accomplish tasks.</t>
         </is>
       </c>
     </row>
